--- a/nr-test-error/ig/ValueSet-fr-core-vs-patient-contact-role.xlsx
+++ b/nr-test-error/ig/ValueSet-fr-core-vs-patient-contact-role.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:10:21+00:00</t>
+    <t>2025-10-23T09:20:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
